--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Itga5</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H2">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I2">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J2">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>2.001184550945303</v>
+        <v>3.729775529414444</v>
       </c>
       <c r="R2">
-        <v>2.001184550945303</v>
+        <v>33.56797976473</v>
       </c>
       <c r="S2">
-        <v>0.003521286713380061</v>
+        <v>0.00489729965065596</v>
       </c>
       <c r="T2">
-        <v>0.003521286713380061</v>
+        <v>0.00489729965065596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H3">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I3">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J3">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>13.00783128339557</v>
+        <v>13.19446710443556</v>
       </c>
       <c r="R3">
-        <v>13.00783128339557</v>
+        <v>118.75020393992</v>
       </c>
       <c r="S3">
-        <v>0.0228885953804079</v>
+        <v>0.01732470456507295</v>
       </c>
       <c r="T3">
-        <v>0.0228885953804079</v>
+        <v>0.01732470456507295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H4">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I4">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J4">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>3.707912456541545</v>
+        <v>5.159862604413777</v>
       </c>
       <c r="R4">
-        <v>3.707912456541545</v>
+        <v>46.438763439724</v>
       </c>
       <c r="S4">
-        <v>0.006524447163770371</v>
+        <v>0.00677504400217766</v>
       </c>
       <c r="T4">
-        <v>0.006524447163770371</v>
+        <v>0.006775044002177663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H5">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I5">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J5">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>3.76211986464941</v>
+        <v>3.818314086576889</v>
       </c>
       <c r="R5">
-        <v>3.76211986464941</v>
+        <v>34.364826779192</v>
       </c>
       <c r="S5">
-        <v>0.006619830583478876</v>
+        <v>0.005013553254027445</v>
       </c>
       <c r="T5">
-        <v>0.006619830583478876</v>
+        <v>0.005013553254027447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H6">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I6">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J6">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>3.64662749033649</v>
+        <v>3.872528822308</v>
       </c>
       <c r="R6">
-        <v>3.64662749033649</v>
+        <v>34.852759400772</v>
       </c>
       <c r="S6">
-        <v>0.00641661006442545</v>
+        <v>0.005084738719281988</v>
       </c>
       <c r="T6">
-        <v>0.00641661006442545</v>
+        <v>0.005084738719281989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H7">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I7">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J7">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>1.258334639054596</v>
+        <v>1.371566107112445</v>
       </c>
       <c r="R7">
-        <v>1.258334639054596</v>
+        <v>12.344094964012</v>
       </c>
       <c r="S7">
-        <v>0.002214167125863422</v>
+        <v>0.001800904682933522</v>
       </c>
       <c r="T7">
-        <v>0.002214167125863422</v>
+        <v>0.001800904682933522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J8">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>30.61471440154978</v>
+        <v>62.10919797472778</v>
       </c>
       <c r="R8">
-        <v>30.61471440154978</v>
+        <v>558.9827817725501</v>
       </c>
       <c r="S8">
-        <v>0.0538696878332282</v>
+        <v>0.08155111511279312</v>
       </c>
       <c r="T8">
-        <v>0.0538696878332282</v>
+        <v>0.0815511151127931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J9">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>198.9976584301468</v>
+        <v>219.7177184250223</v>
       </c>
       <c r="R9">
-        <v>198.9976584301468</v>
+        <v>1977.4594658252</v>
       </c>
       <c r="S9">
-        <v>0.3501565161957778</v>
+        <v>0.2884955132553825</v>
       </c>
       <c r="T9">
-        <v>0.3501565161957778</v>
+        <v>0.2884955132553825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H10">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I10">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J10">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>56.72474376705846</v>
+        <v>85.92338211577112</v>
       </c>
       <c r="R10">
-        <v>56.72474376705846</v>
+        <v>773.3104390419401</v>
       </c>
       <c r="S10">
-        <v>0.09981292652518124</v>
+        <v>0.1128198053475906</v>
       </c>
       <c r="T10">
-        <v>0.09981292652518124</v>
+        <v>0.1128198053475906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H11">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I11">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J11">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>57.55402476309983</v>
+        <v>63.58356519383556</v>
       </c>
       <c r="R11">
-        <v>57.55402476309983</v>
+        <v>572.2520867445201</v>
       </c>
       <c r="S11">
-        <v>0.1012721303510551</v>
+        <v>0.08348700053274188</v>
       </c>
       <c r="T11">
-        <v>0.1012721303510551</v>
+        <v>0.08348700053274188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H12">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I12">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J12">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>55.78718818949309</v>
+        <v>64.48636315798001</v>
       </c>
       <c r="R12">
-        <v>55.78718818949309</v>
+        <v>580.37726842182</v>
       </c>
       <c r="S12">
-        <v>0.09816320261702054</v>
+        <v>0.08467239952513422</v>
       </c>
       <c r="T12">
-        <v>0.09816320261702054</v>
+        <v>0.08467239952513421</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H13">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I13">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J13">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>19.25037627241138</v>
+        <v>22.83967767235778</v>
       </c>
       <c r="R13">
-        <v>19.25037627241138</v>
+        <v>205.55709905122</v>
       </c>
       <c r="S13">
-        <v>0.0338729849596274</v>
+        <v>0.02998913596912702</v>
       </c>
       <c r="T13">
-        <v>0.0338729849596274</v>
+        <v>0.02998913596912701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H14">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I14">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J14">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>8.915431671519007</v>
+        <v>1.296163416060555</v>
       </c>
       <c r="R14">
-        <v>8.915431671519007</v>
+        <v>11.665470744545</v>
       </c>
       <c r="S14">
-        <v>0.01568760416131442</v>
+        <v>0.001701898839382152</v>
       </c>
       <c r="T14">
-        <v>0.01568760416131442</v>
+        <v>0.001701898839382152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H15">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I15">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J15">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>57.95089260856997</v>
+        <v>4.585312284964444</v>
       </c>
       <c r="R15">
-        <v>57.95089260856997</v>
+        <v>41.26781056468</v>
       </c>
       <c r="S15">
-        <v>0.101970459483449</v>
+        <v>0.006020643353523818</v>
       </c>
       <c r="T15">
-        <v>0.101970459483449</v>
+        <v>0.006020643353523818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H16">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I16">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J16">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>16.51903625512941</v>
+        <v>1.793144141516222</v>
       </c>
       <c r="R16">
-        <v>16.51903625512941</v>
+        <v>16.138297273646</v>
       </c>
       <c r="S16">
-        <v>0.02906691582020942</v>
+        <v>0.002354448440279685</v>
       </c>
       <c r="T16">
-        <v>0.02906691582020942</v>
+        <v>0.002354448440279685</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H17">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I17">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J17">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>16.76053444321383</v>
+        <v>1.326932141363111</v>
       </c>
       <c r="R17">
-        <v>16.76053444321383</v>
+        <v>11.942389272268</v>
       </c>
       <c r="S17">
-        <v>0.02949185631887822</v>
+        <v>0.001742299036790008</v>
       </c>
       <c r="T17">
-        <v>0.02949185631887822</v>
+        <v>0.001742299036790008</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H18">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I18">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J18">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>16.24600699931468</v>
+        <v>1.345772727482</v>
       </c>
       <c r="R18">
-        <v>16.24600699931468</v>
+        <v>12.111954547338</v>
       </c>
       <c r="S18">
-        <v>0.0285864932173014</v>
+        <v>0.001767037253631887</v>
       </c>
       <c r="T18">
-        <v>0.0285864932173014</v>
+        <v>0.001767037253631887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.159143</v>
+      </c>
+      <c r="I19">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J19">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N19">
+        <v>26.955586</v>
+      </c>
+      <c r="O19">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P19">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q19">
+        <v>0.4766436469775555</v>
+      </c>
+      <c r="R19">
+        <v>4.289792822798</v>
+      </c>
+      <c r="S19">
+        <v>0.0006258464477075469</v>
+      </c>
+      <c r="T19">
+        <v>0.0006258464477075469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.428537</v>
+      </c>
+      <c r="I20">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J20">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>24.43393833333333</v>
+      </c>
+      <c r="N20">
+        <v>73.301815</v>
+      </c>
+      <c r="O20">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="P20">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="Q20">
+        <v>3.490282210517222</v>
+      </c>
+      <c r="R20">
+        <v>31.412539894655</v>
+      </c>
+      <c r="S20">
+        <v>0.004582838220545731</v>
+      </c>
+      <c r="T20">
+        <v>0.004582838220545732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.428537</v>
+      </c>
+      <c r="I21">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J21">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N21">
+        <v>259.31276</v>
+      </c>
+      <c r="O21">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="P21">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="Q21">
+        <v>12.34723469245778</v>
+      </c>
+      <c r="R21">
+        <v>111.12511223212</v>
+      </c>
+      <c r="S21">
+        <v>0.01621226469771864</v>
+      </c>
+      <c r="T21">
+        <v>0.01621226469771864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.428537</v>
+      </c>
+      <c r="I22">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J22">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.80250733333333</v>
+      </c>
+      <c r="N22">
+        <v>101.407522</v>
+      </c>
+      <c r="O22">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="P22">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="Q22">
+        <v>4.828541695034889</v>
+      </c>
+      <c r="R22">
+        <v>43.456875255314</v>
+      </c>
+      <c r="S22">
+        <v>0.00634001037590177</v>
+      </c>
+      <c r="T22">
+        <v>0.006340010375901771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.428537</v>
+      </c>
+      <c r="I23">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J23">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>25.01395866666667</v>
+      </c>
+      <c r="N23">
+        <v>75.041876</v>
+      </c>
+      <c r="O23">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="P23">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="Q23">
+        <v>3.573135601712445</v>
+      </c>
+      <c r="R23">
+        <v>32.158220415412</v>
+      </c>
+      <c r="S23">
+        <v>0.004691627041898668</v>
+      </c>
+      <c r="T23">
+        <v>0.004691627041898668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.428537</v>
+      </c>
+      <c r="I24">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J24">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>25.369122</v>
+      </c>
+      <c r="N24">
+        <v>76.107366</v>
+      </c>
+      <c r="O24">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="P24">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="Q24">
+        <v>3.623869144838</v>
+      </c>
+      <c r="R24">
+        <v>32.614822303542</v>
+      </c>
+      <c r="S24">
+        <v>0.004758241603838359</v>
+      </c>
+      <c r="T24">
+        <v>0.004758241603838359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.428537</v>
+      </c>
+      <c r="I25">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J25">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N25">
+        <v>26.955586</v>
+      </c>
+      <c r="O25">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P25">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q25">
+        <v>1.283496217520222</v>
+      </c>
+      <c r="R25">
+        <v>11.551465957682</v>
+      </c>
+      <c r="S25">
+        <v>0.001685266453197747</v>
+      </c>
+      <c r="T25">
+        <v>0.001685266453197747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H26">
+        <v>2.526262</v>
+      </c>
+      <c r="I26">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J26">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.43393833333333</v>
+      </c>
+      <c r="N26">
+        <v>73.301815</v>
+      </c>
+      <c r="O26">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="P26">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="Q26">
+        <v>20.57550997394778</v>
+      </c>
+      <c r="R26">
+        <v>185.17958976553</v>
+      </c>
+      <c r="S26">
+        <v>0.02701622041670217</v>
+      </c>
+      <c r="T26">
+        <v>0.02701622041670218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H27">
+        <v>2.526262</v>
+      </c>
+      <c r="I27">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J27">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N27">
+        <v>259.31276</v>
+      </c>
+      <c r="O27">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="P27">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="Q27">
+        <v>72.78799685590222</v>
+      </c>
+      <c r="R27">
+        <v>655.0919717031201</v>
+      </c>
+      <c r="S27">
+        <v>0.09557267689788297</v>
+      </c>
+      <c r="T27">
+        <v>0.09557267689788297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.6764037816012261</v>
-      </c>
-      <c r="H19">
-        <v>0.6764037816012261</v>
-      </c>
-      <c r="I19">
-        <v>0.2146676144867836</v>
-      </c>
-      <c r="J19">
-        <v>0.2146676144867836</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="N19">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="O19">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="P19">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="Q19">
-        <v>5.605977963950119</v>
-      </c>
-      <c r="R19">
-        <v>5.605977963950119</v>
-      </c>
-      <c r="S19">
-        <v>0.009864285485631107</v>
-      </c>
-      <c r="T19">
-        <v>0.009864285485631107</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H28">
+        <v>2.526262</v>
+      </c>
+      <c r="I28">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J28">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>33.80250733333333</v>
+      </c>
+      <c r="N28">
+        <v>101.407522</v>
+      </c>
+      <c r="O28">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="P28">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="Q28">
+        <v>28.46466326030711</v>
+      </c>
+      <c r="R28">
+        <v>256.181969342764</v>
+      </c>
+      <c r="S28">
+        <v>0.03737489946549856</v>
+      </c>
+      <c r="T28">
+        <v>0.03737489946549857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H29">
+        <v>2.526262</v>
+      </c>
+      <c r="I29">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J29">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>25.01395866666667</v>
+      </c>
+      <c r="N29">
+        <v>75.041876</v>
+      </c>
+      <c r="O29">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="P29">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="Q29">
+        <v>21.06393774972355</v>
+      </c>
+      <c r="R29">
+        <v>189.575439747512</v>
+      </c>
+      <c r="S29">
+        <v>0.02765753975530937</v>
+      </c>
+      <c r="T29">
+        <v>0.02765753975530938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H30">
+        <v>2.526262</v>
+      </c>
+      <c r="I30">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J30">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.369122</v>
+      </c>
+      <c r="N30">
+        <v>76.107366</v>
+      </c>
+      <c r="O30">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="P30">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="Q30">
+        <v>21.363016293988</v>
+      </c>
+      <c r="R30">
+        <v>192.267146645892</v>
+      </c>
+      <c r="S30">
+        <v>0.02805023825386349</v>
+      </c>
+      <c r="T30">
+        <v>0.02805023825386349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H31">
+        <v>2.526262</v>
+      </c>
+      <c r="I31">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J31">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N31">
+        <v>26.955586</v>
+      </c>
+      <c r="O31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q31">
+        <v>7.566319177725777</v>
+      </c>
+      <c r="R31">
+        <v>68.09687259953201</v>
+      </c>
+      <c r="S31">
+        <v>0.009934788829408538</v>
+      </c>
+      <c r="T31">
+        <v>0.009934788829408538</v>
       </c>
     </row>
   </sheetData>
